--- a/0. Nomina/2. Descuentos - Color/2025/02. Color - MAR 17 al MAR 31 - 2025.xlsx
+++ b/0. Nomina/2. Descuentos - Color/2025/02. Color - MAR 17 al MAR 31 - 2025.xlsx
@@ -769,7 +769,7 @@
         <v>20</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>21829.1345555556</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
